--- a/data/trans_dic/P2A_lim_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,31%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,96; 3,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>2,53; 6,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>2,17; 6,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>2,82; 10,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>2,42; 6,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>3,7; 8,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,39; 4,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>5,41; 14,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,02; 4,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>3,7; 6,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>2,24; 4,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>4,81; 10,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,46%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>2,15; 5,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,51; 8,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,5; 5,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>7,77; 16,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,07; 4,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>4,23; 8,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,32; 5,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>3,64; 8,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,42; 4,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,91; 7,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,66; 4,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>6,04; 11,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,82%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,48; 7,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,48; 9,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,02; 6,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,89; 8,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,58; 8,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,33; 12,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,79; 7,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>5,57; 9,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,38; 7,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>7,02; 10,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,85; 6,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>5,5; 8,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,04%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>4,75; 9,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>7,15; 12,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>7,32; 12,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,15; 15,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>8,24; 13,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>10,1; 15,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>6,14; 10,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>9,65; 13,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>7,17; 10,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,26; 13,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>7,41; 10,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>6,39; 13,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,62%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>9,22; 15,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>10,04; 16,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>7,79; 14,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>15,51; 21,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>7,24; 13,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>11,33; 18,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>11,88; 18,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>10,56; 14,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>9,13; 13,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>11,47; 16,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>10,63; 15,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>13,61; 17,62</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,58%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>8,38; 15,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>11,61; 20,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>6,91; 13,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>13,75; 19,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>8,29; 14,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>10,33; 18,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>8,86; 15,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>16,71; 79,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>9,16; 14,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>11,98; 17,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>8,97; 13,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>16,55; 69,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,87%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,91; 20,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,15; 26,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,02; 12,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>24,13; 32,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,95; 21,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>18,43; 27,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>13,09; 21,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>32,64; 39,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>13,57; 19,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>18,47; 25,42</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>11,33; 17,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>30,12; 35,36</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11,52%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18,5%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 7,57</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8,5; 10,63</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 7,89</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10,07; 14,39</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7,13; 9,04</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>10,37; 12,62</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7,63; 9,57</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13,4; 33,17</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 7,98</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9,75; 11,26</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>7,2; 8,53</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>12,84; 23,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P2A_lim_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,17 +662,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -706,12 +707,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,37%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,51</t>
+          <t>1,05; 3,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,63</t>
+          <t>2,77; 6,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,24</t>
+          <t>2,29; 6,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 10,12</t>
+          <t>2,91; 11,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,05</t>
+          <t>2,45; 5,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,15</t>
+          <t>3,84; 8,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,61</t>
+          <t>1,37; 4,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,41; 14,52</t>
+          <t>5,51; 14,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,29</t>
+          <t>2,01; 4,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,67</t>
+          <t>3,71; 6,71</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,58</t>
+          <t>2,1; 4,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 10,27</t>
+          <t>4,83; 10,52</t>
         </is>
       </c>
     </row>
@@ -796,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -806,12 +807,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -821,17 +822,17 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -841,17 +842,17 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,51%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,06</t>
+          <t>2,23; 4,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 8,13</t>
+          <t>4,56; 8,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,59</t>
+          <t>2,41; 5,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 16,61</t>
+          <t>7,98; 16,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,94</t>
+          <t>1,98; 4,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,72</t>
+          <t>4,24; 8,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,44</t>
+          <t>2,27; 5,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 8,75</t>
+          <t>3,45; 8,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,37</t>
+          <t>2,41; 4,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,72</t>
+          <t>4,92; 7,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,82</t>
+          <t>2,81; 5,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,04; 11,28</t>
+          <t>6,04; 11,1</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -946,52 +947,52 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,86%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,15</t>
+          <t>3,44; 7,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,59</t>
+          <t>5,61; 9,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,4</t>
+          <t>3,12; 6,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 8,07</t>
+          <t>4,01; 8,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,51</t>
+          <t>4,47; 8,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 12,14</t>
+          <t>7,47; 11,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 7,35</t>
+          <t>3,84; 7,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,57; 9,79</t>
+          <t>5,52; 9,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,18</t>
+          <t>4,48; 7,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,02; 10,06</t>
+          <t>7,06; 10,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 6,16</t>
+          <t>3,9; 6,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,2</t>
+          <t>5,25; 8,27</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1077,27 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1106,32 +1107,32 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>11,11%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 9,48</t>
+          <t>4,96; 9,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 12,33</t>
+          <t>7,29; 12,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 12,34</t>
+          <t>7,42; 12,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 15,1</t>
+          <t>4,52; 15,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 13,83</t>
+          <t>8,22; 13,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 15,66</t>
+          <t>10,0; 15,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,53</t>
+          <t>6,16; 10,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,65; 13,83</t>
+          <t>9,63; 14,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 10,84</t>
+          <t>7,14; 10,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,31</t>
+          <t>9,24; 13,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 10,9</t>
+          <t>7,35; 10,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 13,74</t>
+          <t>6,78; 13,84</t>
         </is>
       </c>
     </row>
@@ -1216,22 +1217,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1246,32 +1247,32 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>15,72%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,22; 15,98</t>
+          <t>9,33; 16,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,04; 16,69</t>
+          <t>10,05; 16,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 14,25</t>
+          <t>7,95; 13,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,51; 21,97</t>
+          <t>15,82; 22,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 13,6</t>
+          <t>7,22; 13,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,33; 18,14</t>
+          <t>11,65; 18,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,88; 18,37</t>
+          <t>11,48; 18,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,56; 14,68</t>
+          <t>10,64; 14,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,13; 13,76</t>
+          <t>9,07; 13,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,47; 16,34</t>
+          <t>11,42; 16,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,63; 15,43</t>
+          <t>10,35; 15,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,61; 17,62</t>
+          <t>13,81; 17,65</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1371,7 +1372,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,12 +1392,12 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1411,7 +1412,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>34,65%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,38; 15,88</t>
+          <t>8,43; 15,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,61; 20,69</t>
+          <t>11,25; 20,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,91; 13,11</t>
+          <t>6,89; 13,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,75; 19,98</t>
+          <t>13,66; 20,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,29; 14,76</t>
+          <t>8,11; 14,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,33; 18,32</t>
+          <t>10,3; 17,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,86; 15,92</t>
+          <t>8,98; 16,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,71; 79,59</t>
+          <t>16,94; 77,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,16; 14,03</t>
+          <t>8,93; 14,13</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,98; 17,71</t>
+          <t>11,7; 17,74</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,97; 13,79</t>
+          <t>8,47; 13,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,55; 69,41</t>
+          <t>16,67; 64,81</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1512,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1532,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1552,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>33,0%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,91; 20,2</t>
+          <t>10,69; 20,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,15; 26,8</t>
+          <t>15,46; 27,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 12,93</t>
+          <t>5,93; 12,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,13; 32,53</t>
+          <t>24,94; 33,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,95; 21,92</t>
+          <t>13,18; 21,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,43; 27,14</t>
+          <t>18,0; 26,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,09; 21,97</t>
+          <t>13,22; 21,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,64; 39,17</t>
+          <t>32,86; 39,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,57; 19,97</t>
+          <t>13,36; 19,84</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,47; 25,42</t>
+          <t>18,47; 25,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,33; 17,06</t>
+          <t>11,2; 16,92</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,12; 35,36</t>
+          <t>30,38; 35,62</t>
         </is>
       </c>
     </row>
@@ -1636,27 +1637,27 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1666,32 +1667,32 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>15,83%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,83; 7,57</t>
+          <t>5,81; 7,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,5; 10,63</t>
+          <t>8,53; 10,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,15; 7,89</t>
+          <t>6,15; 8,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,07; 14,39</t>
+          <t>10,22; 14,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,13; 9,04</t>
+          <t>7,16; 9,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,37; 12,62</t>
+          <t>10,46; 12,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,63; 9,57</t>
+          <t>7,77; 9,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,4; 33,17</t>
+          <t>13,52; 33,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,72; 7,98</t>
+          <t>6,76; 8,02</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,75; 11,26</t>
+          <t>9,8; 11,25</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,2; 8,53</t>
+          <t>7,25; 8,56</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,84; 23,38</t>
+          <t>13,02; 27,71</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con alguna limitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9983</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19473</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16344</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23356</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18585</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24735</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10409</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28788</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28567</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>44209</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26753</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>52144</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5179; 17327</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12571; 31518</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9504; 27685</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11471; 43670</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11468; 27741</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16520; 36052</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5405; 17840</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17247; 43929</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19333; 39114</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32763; 59299</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16999; 38032</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>34130; 74389</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24972</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>42409</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21847</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48270</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19613</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>37829</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20272</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30917</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>44585</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>80238</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>42118</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>79187</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16322; 35867</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>31341; 57096</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14064; 33042</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33472; 68621</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12367; 30338</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>25852; 53117</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12751; 29437</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17635; 45814</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>32689; 59825</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>63719; 98811</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>32101; 58661</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>56160; 103217</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>32443</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>50230</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30369</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31230</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>42672</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>35855</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>45734</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>75115</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>118439</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>66224</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>76964</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21915; 47075</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38243; 67013</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20868; 43312</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21378; 43509</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30724; 58344</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53045; 85062</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25353; 48067</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32534; 58783</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>59433; 95955</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>98190; 143125</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>51826; 82856</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>58947; 92783</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>36048</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>58369</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>63393</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>92294</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>55287</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>77598</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>52664</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>84373</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>91335</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>135967</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>116057</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>176667</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>25606; 50081</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>44736; 76501</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>47723; 80527</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>39935; 137309</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>42185; 70743</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>61609; 95716</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>39942; 68049</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>67972; 99607</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>73551; 111317</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>113689; 162649</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>94919; 138990</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>107907; 220089</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>47731</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>56291</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>50942</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>104847</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>40170</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>64807</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>74074</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>68423</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>87902</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>121098</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>125016</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>173270</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36016; 62684</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>43055; 70786</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>37888; 66411</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>88262; 123514</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29185; 53780</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>52153; 82755</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>56885; 90949</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>57875; 81192</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>71647; 108166</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>100054; 142367</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>100646; 148723</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>152211; 194521</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>34164</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>48186</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>32260</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>61269</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>37978</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>48919</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>45821</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>276398</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>72142</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>97105</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>78081</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>337667</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>24591; 46516</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>34854; 64896</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>23034; 44158</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>50111; 74415</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>27803; 50221</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>36451; 62159</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>33935; 60716</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>102918; 468152</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>56681; 89650</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>77645; 117724</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>60312; 95904</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>162407; 631511</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>32319</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>51363</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>22786</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>80941</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>57125</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>87683</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>69068</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>151994</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>89443</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>139046</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>91854</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>232935</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>22436; 42933</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>38616; 67828</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>15245; 32266</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>70153; 93488</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>44015; 72009</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>70003; 104430</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>52920; 87229</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>139525; 167274</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>72666; 107863</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>118014; 164768</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>73580; 111160</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>214440; 251453</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>217659</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>326322</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>237941</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>442206</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>271430</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>409780</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>308163</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>686628</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>489089</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>736101</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>546104</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1128833</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>189845; 247810</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>291937; 365686</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>207562; 272160</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>351263; 498687</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>241531; 307359</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>372104; 450408</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>274838; 343545</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>499800; 1225374</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>448730; 532442</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>683949; 785386</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>501359; 591663</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>928987; 1976213</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>